--- a/Matriz de consistencia.xlsx
+++ b/Matriz de consistencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://licenciasesanedu-my.sharepoint.com/personal/19100586_ue_edu_pe/Documents/Escritorio/Tesis/Tesis Entregable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A5F471-F1EF-4090-B47B-5300F3D8211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{01A5F471-F1EF-4090-B47B-5300F3D8211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24CE9170-05E2-4BC8-B38C-BD57FB5C0943}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B60C969D-11D3-4C57-AE39-7F6FBA2C6615}"/>
   </bookViews>
@@ -59,30 +59,15 @@
     <t xml:space="preserve">Problema Específico 	                                                       ¿De qué manera la falta de conjuntos de datos de lenguaje de señas de cada idioma afectar al modelo Deep Learning? </t>
   </si>
   <si>
-    <t>Problema Específico 	                                                              ¿De qué manera el modelo Deep Learning pueden diferenciar entre los distintos tipos de lenguajes de señas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problema Específico 	                                                            ¿Qué métricas son las más adecuadas para la precisión y rendimiento de un modelo de traducción de lenguaje de señas? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Problema Específico                                                   	¿Cuáles son las técnicas más adecuadas para el preprocesamiento y normalización de la base de datos de lenguaje de señas? </t>
   </si>
   <si>
     <t>Objetivo General                                                             Desarrollar un modelo Deep Learning que se utilizará como medio para la traducción de lenguaje de señas, permitiendo la comunicación entre personas con discapacidades del habla y personas sin conocimiento del lenguaje de señas.</t>
   </si>
   <si>
-    <t>Objetivo Específico                                                          Evaluar y comparar diferentes enfoques en los aumentos de datos para mejorar la representación de los conjuntos de datos de lenguaje de señas.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Objetivo Específico                                                                        Utilizar técnicas de aprendizaje automático para mejorar la precisión del modelo en la diferenciación entre los distintos tipos de lenguajes de señas. </t>
   </si>
   <si>
-    <t>Objetivo Específico                                                              Evaluar diferentes métricas de evaluación de modelos Deep Learning, como Accuracy, Recall, F1-Score para la determinación del modelo más adecuado para la traducción adecuada de lenguaje de señas.</t>
-  </si>
-  <si>
-    <t>Objetivo Específico 	                                                 Realizar comparaciones entre diferentes técnicas de preprocesamiento y normalización de datos de lenguaje de señas, como normalización de iluminación, corrección de gestos ambiguos.</t>
-  </si>
-  <si>
     <t>Hipótesis General                                                            Mediante el desarrollo de un modelo de traducción de lenguaje de señas basado en Deep Learning se logrará mejorar la comunicación para personas con discapacidades del habla con personas que no conocen el lenguaje de señas, mejorando así su accesibilidad y calidad de vida.</t>
   </si>
   <si>
@@ -101,9 +86,6 @@
     <t>Técnicas de preprocesamiento</t>
   </si>
   <si>
-    <t>Problema General	                                                                            ¿De qué manera el uso de un modelo Deep Learning podría facilitar la comunicación para personas con discapacidades del habla para interactuar con personas que no conocen el lenguaje de señas?</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -189,6 +171,24 @@
   </si>
   <si>
     <t>Porcentaje de mejora en la calidad de los datos</t>
+  </si>
+  <si>
+    <t>Objetivo Específico                                                              Evaluar diferentes métricas de evaluación de modelos Deep Learning, para la determinación del modelo más adecuado para la traducción adecuada de lenguaje de señas.</t>
+  </si>
+  <si>
+    <t>Problema General	                                                                            ¿De qué manera el uso de un modelo Deep Learning podría facilitar la comunicación para personas con discapacidades del habla a través de lenguaje de señas?</t>
+  </si>
+  <si>
+    <t>Problema Específico 	                                                              ¿Cuál sería el mejor modelo Deep Learning para traducir el lenguajes de señas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema Específico 	                                                            ¿Qué métricas son las más adecuadas de un modelo de Deep Learning para la traducción de lenguaje de señas? </t>
+  </si>
+  <si>
+    <t>Objetivo Específico                                                          Evaluar diferentes enfoques en los aumentos de datos para mejorar la representación de los conjuntos de datos de lenguaje de señas.</t>
+  </si>
+  <si>
+    <t>Objetivo Específico 	                                                 Seleccionar las mejores técnicas de preprocesamiento y normalización de datos de lenguaje de señas, como normalización de iluminación, corrección de gestos ambiguos.</t>
   </si>
 </sst>
 </file>
@@ -291,25 +291,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,6 +310,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +481,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>1165860</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>183931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -507,8 +504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887201" y="3480788"/>
-          <a:ext cx="2743199" cy="382552"/>
+          <a:off x="13551777" y="3817119"/>
+          <a:ext cx="2735842" cy="662915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -564,15 +561,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:colOff>470863</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>121132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>998555</xdr:colOff>
+      <xdr:colOff>1103658</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>323911</xdr:rowOff>
+      <xdr:rowOff>376463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -595,8 +592,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12062460" y="5836920"/>
-          <a:ext cx="2400635" cy="438211"/>
+          <a:off x="13832139" y="6519304"/>
+          <a:ext cx="2393278" cy="439262"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,7 +613,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>1325880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>173412</xdr:rowOff>
+      <xdr:rowOff>173411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -660,7 +657,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>1258088</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>378221</xdr:rowOff>
+      <xdr:rowOff>273117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1015,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB640F8-1320-4C1F-8930-7E2664020A71}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,602 +1032,581 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="K15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="7" t="s">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="s">
+      <c r="K23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="O9:Q10"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="O13:Q14"/>
-    <mergeCell ref="O15:Q16"/>
-    <mergeCell ref="O17:Q18"/>
-    <mergeCell ref="O19:Q20"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="O21:Q22"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="J1:L4"/>
+    <mergeCell ref="M1:N4"/>
+    <mergeCell ref="O1:Q4"/>
+    <mergeCell ref="G1:I4"/>
+    <mergeCell ref="D1:F4"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="D5:F8"/>
+    <mergeCell ref="G5:I8"/>
     <mergeCell ref="A21:C24"/>
     <mergeCell ref="D21:F24"/>
     <mergeCell ref="G21:I24"/>
@@ -1647,18 +1623,39 @@
     <mergeCell ref="D13:F16"/>
     <mergeCell ref="G13:I16"/>
     <mergeCell ref="D17:F20"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="A5:C8"/>
-    <mergeCell ref="D5:F8"/>
-    <mergeCell ref="G5:I8"/>
-    <mergeCell ref="J1:L4"/>
-    <mergeCell ref="M1:N4"/>
-    <mergeCell ref="O1:Q4"/>
-    <mergeCell ref="G1:I4"/>
-    <mergeCell ref="D1:F4"/>
-    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="O19:Q20"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="O9:Q10"/>
+    <mergeCell ref="O11:Q12"/>
+    <mergeCell ref="O13:Q14"/>
+    <mergeCell ref="O15:Q16"/>
+    <mergeCell ref="O17:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
